--- a/solutions/nvidia/ai/gpu-compute-cluster/presales/infrastructure-costs.xlsx
+++ b/solutions/nvidia/ai/gpu-compute-cluster/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1979,575 +1979,36 @@
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>Cluster Design &amp; Architecture</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>Solution architecture and deployment planning</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G16" s="50">
-        <f>$80*$225</f>
-        <v/>
-      </c>
-      <c r="H16" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I16" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J16" s="50">
-        <f>$18000</f>
-        <v/>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>Pre-deployment design</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>Server Installation &amp; Config</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>Hardware installation and GPU driver setup</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>120</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G17" s="46">
-        <f>$120*$200</f>
-        <v/>
-      </c>
-      <c r="H17" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I17" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J17" s="46">
-        <f>$24000</f>
-        <v/>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>System deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Network Configuration</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>100 GbE fabric and RDMA setup</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G18" s="50">
-        <f>$60*$200</f>
-        <v/>
-      </c>
-      <c r="H18" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I18" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J18" s="50">
-        <f>$12000</f>
-        <v/>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>Network infrastructure</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Storage Configuration</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>NetApp deployment and NFS optimization</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G19" s="46">
-        <f>$40*$200</f>
-        <v/>
-      </c>
-      <c r="H19" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I19" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J19" s="46">
-        <f>$8000</f>
-        <v/>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>Storage integration</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>Kubernetes Deployment</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>K8s cluster NVIDIA GPU Operator and scheduling</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G20" s="50">
-        <f>$80*$225</f>
-        <v/>
-      </c>
-      <c r="H20" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I20" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J20" s="50">
-        <f>$18000</f>
-        <v/>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>Container orchestration</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B21" s="44" t="inlineStr">
-        <is>
-          <t>MLOps Platform Setup</t>
-        </is>
-      </c>
-      <c r="C21" s="44" t="inlineStr">
-        <is>
-          <t>Kubeflow or Run:ai deployment and configuration</t>
-        </is>
-      </c>
-      <c r="D21" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E21" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F21" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G21" s="46">
-        <f>$60*$225</f>
-        <v/>
-      </c>
-      <c r="H21" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I21" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J21" s="46">
-        <f>$13500</f>
-        <v/>
-      </c>
-      <c r="K21" s="44" t="inlineStr">
-        <is>
-          <t>ML workflow platform</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B22" s="48" t="inlineStr">
-        <is>
-          <t>Monitoring &amp; Observability</t>
-        </is>
-      </c>
-      <c r="C22" s="48" t="inlineStr">
-        <is>
-          <t>Prometheus Grafana GPU metrics dashboards</t>
-        </is>
-      </c>
-      <c r="D22" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E22" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F22" s="50" t="n">
-        <v>175</v>
-      </c>
-      <c r="G22" s="50">
-        <f>$40*$175</f>
-        <v/>
-      </c>
-      <c r="H22" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I22" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J22" s="50">
-        <f>$7000</f>
-        <v/>
-      </c>
-      <c r="K22" s="48" t="inlineStr">
-        <is>
-          <t>Monitoring setup</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B23" s="44" t="inlineStr">
-        <is>
-          <t>Administrator Training</t>
-        </is>
-      </c>
-      <c r="C23" s="44" t="inlineStr">
-        <is>
-          <t>Cluster management Kubernetes GPU troubleshooting</t>
-        </is>
-      </c>
-      <c r="D23" s="45" t="n">
-        <v>32</v>
-      </c>
-      <c r="E23" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F23" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G23" s="46">
-        <f>$32*$200</f>
-        <v/>
-      </c>
-      <c r="H23" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I23" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J23" s="46">
-        <f>$6400</f>
-        <v/>
-      </c>
-      <c r="K23" s="44" t="inlineStr">
-        <is>
-          <t>Admin knowledge transfer</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B24" s="48" t="inlineStr">
-        <is>
-          <t>User Training</t>
-        </is>
-      </c>
-      <c r="C24" s="48" t="inlineStr">
-        <is>
-          <t>Data scientist onboarding job submission best practices</t>
-        </is>
-      </c>
-      <c r="D24" s="49" t="n">
-        <v>24</v>
-      </c>
-      <c r="E24" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F24" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G24" s="50">
-        <f>$24*$200</f>
-        <v/>
-      </c>
-      <c r="H24" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I24" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J24" s="50">
-        <f>$4800</f>
-        <v/>
-      </c>
-      <c r="K24" s="48" t="inlineStr">
-        <is>
-          <t>End-user training</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="26" customHeight="1">
-      <c r="A25" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B25" s="44" t="inlineStr">
-        <is>
-          <t>Performance Tuning</t>
-        </is>
-      </c>
-      <c r="C25" s="44" t="inlineStr">
-        <is>
-          <t>Benchmark testing and workload optimization</t>
-        </is>
-      </c>
-      <c r="D25" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E25" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F25" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G25" s="46">
-        <f>$40*$225</f>
-        <v/>
-      </c>
-      <c r="H25" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I25" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J25" s="46">
-        <f>$9000</f>
-        <v/>
-      </c>
-      <c r="K25" s="44" t="inlineStr">
-        <is>
-          <t>Performance optimization</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B26" s="48" t="inlineStr">
-        <is>
-          <t>Project Management</t>
-        </is>
-      </c>
-      <c r="C26" s="48" t="inlineStr">
-        <is>
-          <t>End-to-end project coordination</t>
-        </is>
-      </c>
-      <c r="D26" s="49" t="n">
-        <v>120</v>
-      </c>
-      <c r="E26" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F26" s="50" t="n">
-        <v>175</v>
-      </c>
-      <c r="G26" s="50">
-        <f>$120*$175</f>
-        <v/>
-      </c>
-      <c r="H26" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I26" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J26" s="50">
-        <f>$21000</f>
-        <v/>
-      </c>
-      <c r="K26" s="48" t="inlineStr">
-        <is>
-          <t>Implementation oversight</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="26" customHeight="1">
-      <c r="A27" s="51" t="inlineStr">
+      <c r="A16" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B27" s="52" t="n"/>
-      <c r="C27" s="52" t="n"/>
-      <c r="D27" s="52" t="n"/>
-      <c r="E27" s="52" t="n"/>
-      <c r="F27" s="52" t="n"/>
-      <c r="G27" s="53">
-        <f>SUM(G3:G26)</f>
-        <v/>
-      </c>
-      <c r="H27" s="53">
-        <f>SUM(H3:H26)</f>
-        <v/>
-      </c>
-      <c r="I27" s="53">
-        <f>SUM(I3:I26)</f>
-        <v/>
-      </c>
-      <c r="J27" s="53">
-        <f>SUM(J3:J26)</f>
-        <v/>
-      </c>
-      <c r="K27" s="52" t="n"/>
+      <c r="B16" s="52" t="n"/>
+      <c r="C16" s="52" t="n"/>
+      <c r="D16" s="52" t="n"/>
+      <c r="E16" s="52" t="n"/>
+      <c r="F16" s="52" t="n"/>
+      <c r="G16" s="53">
+        <f>SUM(G3:G15)</f>
+        <v/>
+      </c>
+      <c r="H16" s="53">
+        <f>SUM(H3:H15)</f>
+        <v/>
+      </c>
+      <c r="I16" s="53">
+        <f>SUM(I3:I15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="53">
+        <f>SUM(J3:J15)</f>
+        <v/>
+      </c>
+      <c r="K16" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K27"/>
+  <autoFilter ref="A2:K16"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2700,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2856,69 +2317,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
